--- a/src/test/resources/ExcelFiles/ScenarioStatus.xlsx
+++ b/src/test/resources/ExcelFiles/ScenarioStatus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resul\IdeaProjects\DemoqaUITestingCucumber\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="50">
   <si>
     <t>Assign</t>
   </si>
@@ -131,12 +131,52 @@
   </si>
   <si>
     <t>2023-09-28 18:12:58</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:14:49</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:14:57</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:03</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:13</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:36</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:58</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:16:02</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:16:03</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:16:04</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:18:04</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:18:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:18:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -502,11 +542,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="72.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="72.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
@@ -883,6 +923,414 @@
         <v>36</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
